--- a/biology/Zoologie/Boiga_tanahjampeana/Boiga_tanahjampeana.xlsx
+++ b/biology/Zoologie/Boiga_tanahjampeana/Boiga_tanahjampeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga tanahjampeana  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga tanahjampeana  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d’Indonésie. Elle se rencontre sur l'île de Tanahjampea dans la province de Sulawesi du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d’Indonésie. Elle se rencontre sur l'île de Tanahjampea dans la province de Sulawesi du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga tanahjampeana est un serpent trapu d'une longueur moyenne de 126 cm dont 35,3 cm pour la queue chez les mâles et de 144 cm dont 38 cm pour la queue chez les femelles. Son dos et sa tête sont gris sans aucun motif. Son ventre est blanc et séparé de la face dorsale par une ligne gris foncé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga tanahjampeana est un serpent trapu d'une longueur moyenne de 126 cm dont 35,3 cm pour la queue chez les mâles et de 144 cm dont 38 cm pour la queue chez les femelles. Son dos et sa tête sont gris sans aucun motif. Son ventre est blanc et séparé de la face dorsale par une ligne gris foncé.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce fait référence au lieu de sa découverte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Orlov &amp; Ryabov, 2002 : A new species of the genus Boiga (Serpentes, Colubridae, Colubrinae) from Tanahjampea Island and description of "black form" of Boiga cynodon Complex from Sumatra (Indonesia). Russian Journal of Herpetology, vol. 9, n. 1, p. 33-56</t>
         </is>
